--- a/medicine/Sexualité et sexologie/Position_du_chevauchement/Position_du_chevauchement.xlsx
+++ b/medicine/Sexualité et sexologie/Position_du_chevauchement/Position_du_chevauchement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La position du chevauchement, position de l'amazone ou position d'Andromaque est une position sexuelle où l'un des partenaires chevauche l'autre.
 Il en existe plusieurs variantes ; elles permettent toutes la pénétration vaginale, et certaines la pénétration anale.
@@ -512,11 +524,13 @@
           <t>Histoire et origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la tradition juive, notamment dans l'Alphabet de Ben Sira, Lilith aurait voulu assumer la position du chevauchement avec Adam[1],[2], mais elle fut bientôt réprouvée et remplacée par Ève.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la tradition juive, notamment dans l'Alphabet de Ben Sira, Lilith aurait voulu assumer la position du chevauchement avec Adam mais elle fut bientôt réprouvée et remplacée par Ève.
 L'appellation « position d'Andromaque », souvent associée au chevauchement, est issue d'une épigramme du poète latin Martial évoquant Andromaque, l'épouse d'Hector de Troie : 
-« Les esclaves phrygiens se masturbaient derrière la porte, quand l’épouse d'Hector chevauchait son mari[3]. »
+« Les esclaves phrygiens se masturbaient derrière la porte, quand l’épouse d'Hector chevauchait son mari. »
 </t>
         </is>
       </c>
